--- a/public/excelop/template/putout.xlsx
+++ b/public/excelop/template/putout.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="8265"/>
+    <workbookView windowWidth="19770" windowHeight="8550"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <t>材料名称</t>
   </si>
   <si>
-    <t>类别</t>
+    <t>材料类别</t>
   </si>
   <si>
     <t>数量</t>
@@ -40,7 +40,7 @@
     <t>&lt;%=rs1.name%&gt;</t>
   </si>
   <si>
-    <t>&lt;%=rs1.category%&gt;</t>
+    <t>&lt;%=rs1.cname%&gt;</t>
   </si>
   <si>
     <t>&lt;%=rs1.num%&gt;</t>
@@ -63,10 +63,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -83,9 +83,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -96,18 +112,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -116,10 +133,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -130,9 +148,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -146,9 +171,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -162,6 +194,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -170,69 +225,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,66 +253,156 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -325,115 +415,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -488,36 +488,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -557,11 +527,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -585,153 +561,177 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -809,6 +809,7 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -1144,13 +1145,13 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="12.625" customWidth="1"/>
-    <col min="2" max="2" width="17.125" customWidth="1"/>
+    <col min="2" max="2" width="12.625" customWidth="1"/>
     <col min="3" max="3" width="20.375" customWidth="1"/>
     <col min="4" max="5" width="19.375" customWidth="1"/>
   </cols>

--- a/public/excelop/template/putout.xlsx
+++ b/public/excelop/template/putout.xlsx
@@ -10,18 +10,24 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$D$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$H$2</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
   <si>
     <t>&lt;%=_data_[0][0].date+"出库单"%&gt;</t>
   </si>
   <si>
+    <t>门店</t>
+  </si>
+  <si>
+    <t>分类</t>
+  </si>
+  <si>
     <t>材料名称</t>
   </si>
   <si>
@@ -34,9 +40,18 @@
     <t>单价</t>
   </si>
   <si>
+    <t>单位</t>
+  </si>
+  <si>
     <t>总价</t>
   </si>
   <si>
+    <t>&lt;%=rs1.store%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.category%&gt;</t>
+  </si>
+  <si>
     <t>&lt;%=rs1.name%&gt;</t>
   </si>
   <si>
@@ -47,6 +62,9 @@
   </si>
   <si>
     <t>&lt;%=rs1.unitPrice%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.unit%&gt;</t>
   </si>
   <si>
     <t>&lt;%=rs1.total%&gt;</t>
@@ -64,9 +82,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -735,7 +753,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -746,6 +764,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
@@ -1142,30 +1163,33 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" width="12.625" customWidth="1"/>
-    <col min="2" max="2" width="12.625" customWidth="1"/>
-    <col min="3" max="3" width="20.375" customWidth="1"/>
-    <col min="4" max="5" width="19.375" customWidth="1"/>
+    <col min="1" max="2" width="12.625" customWidth="1"/>
+    <col min="3" max="4" width="12.625" customWidth="1"/>
+    <col min="5" max="5" width="20.375" customWidth="1"/>
+    <col min="6" max="8" width="19.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
     </row>
-    <row r="2" ht="17.25" spans="1:5">
+    <row r="2" ht="17.25" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1175,42 +1199,60 @@
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>8</v>
+    <row r="3" spans="1:9">
+      <c r="A3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="4" spans="6:6">
-      <c r="F4" t="s">
-        <v>12</v>
+    <row r="4" spans="9:9">
+      <c r="I4" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:D3"/>
+  <autoFilter ref="A2:H2"/>
   <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/public/excelop/template/putout.xlsx
+++ b/public/excelop/template/putout.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="8550"/>
+    <workbookView windowWidth="25815" windowHeight="5610"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$H$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$E$3</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13">
   <si>
     <t>&lt;%=_data_[0][0].date+"出库单"%&gt;</t>
   </si>
@@ -25,13 +25,7 @@
     <t>门店</t>
   </si>
   <si>
-    <t>分类</t>
-  </si>
-  <si>
     <t>材料名称</t>
-  </si>
-  <si>
-    <t>材料类别</t>
   </si>
   <si>
     <t>数量</t>
@@ -40,31 +34,19 @@
     <t>单价</t>
   </si>
   <si>
-    <t>单位</t>
-  </si>
-  <si>
     <t>总价</t>
   </si>
   <si>
     <t>&lt;%=rs1.store%&gt;</t>
   </si>
   <si>
-    <t>&lt;%=rs1.category%&gt;</t>
-  </si>
-  <si>
     <t>&lt;%=rs1.name%&gt;</t>
-  </si>
-  <si>
-    <t>&lt;%=rs1.cname%&gt;</t>
   </si>
   <si>
     <t>&lt;%=rs1.num%&gt;</t>
   </si>
   <si>
     <t>&lt;%=rs1.unitPrice%&gt;</t>
-  </si>
-  <si>
-    <t>&lt;%=rs1.unit%&gt;</t>
   </si>
   <si>
     <t>&lt;%=rs1.total%&gt;</t>
@@ -101,6 +83,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -109,7 +98,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -135,9 +124,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -145,37 +133,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -204,6 +162,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -221,14 +194,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,20 +233,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,25 +253,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -301,97 +421,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -404,54 +434,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -506,16 +488,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -530,16 +512,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -574,6 +556,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -594,166 +585,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -764,9 +746,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
@@ -831,6 +810,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1156,40 +1140,36 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="2" width="12.625" customWidth="1"/>
-    <col min="3" max="4" width="12.625" customWidth="1"/>
-    <col min="5" max="5" width="20.375" customWidth="1"/>
-    <col min="6" max="8" width="19.375" customWidth="1"/>
+    <col min="1" max="1" width="12.625" customWidth="1"/>
+    <col min="2" max="2" width="31.75" customWidth="1"/>
+    <col min="3" max="3" width="20.375" customWidth="1"/>
+    <col min="4" max="5" width="19.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:5">
       <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
     </row>
-    <row r="2" ht="17.25" spans="1:8">
+    <row r="2" ht="17.25" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1199,60 +1179,44 @@
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="F3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="5" t="s">
+    </row>
+    <row r="4" spans="6:6">
+      <c r="F4" t="s">
         <v>12</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="9:9">
-      <c r="I4" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:H2"/>
+  <autoFilter ref="A2:E3">
+    <extLst/>
+  </autoFilter>
   <mergeCells count="1">
-    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="B1:E1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
